--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail1 Features.xlsx
@@ -2993,7 +2993,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.718835970945268</v>
+        <v>1.702459175725105</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.486816897115898</v>
@@ -3082,7 +3082,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.744503551854282</v>
+        <v>1.743542797171981</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.831453337306468</v>
@@ -3171,7 +3171,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.72953005154515</v>
+        <v>1.730703376684119</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.755295113676963</v>
@@ -3260,7 +3260,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.762641007753469</v>
+        <v>1.758261731673266</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.759619973381551</v>
@@ -3349,7 +3349,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.76829230319054</v>
+        <v>1.757357234400839</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.812971235452147</v>
@@ -3438,7 +3438,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.781239135074391</v>
+        <v>1.786401199627825</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.715085190552893</v>
@@ -3527,7 +3527,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.785495689233731</v>
+        <v>1.794072733169618</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.700012255553302</v>
@@ -3616,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.80156029391623</v>
+        <v>1.813127067926964</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.84455685323921</v>
@@ -3705,7 +3705,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.80570158531215</v>
+        <v>1.822687793421207</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.731412963081345</v>
@@ -3794,7 +3794,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.808523557880261</v>
+        <v>1.831670003972428</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.867685799444903</v>
@@ -3883,7 +3883,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.811128892211465</v>
+        <v>1.837259784306487</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.868911920874034</v>
@@ -3972,7 +3972,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.810296978988853</v>
+        <v>1.834479076137973</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.893946080630255</v>
@@ -4061,7 +4061,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.790609139920343</v>
+        <v>1.820741266158727</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.883841156380164</v>
@@ -4150,7 +4150,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.784527092317713</v>
+        <v>1.810425103804918</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.796819735148221</v>
@@ -4239,7 +4239,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.758125138387094</v>
+        <v>1.787422602222118</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.869981019010673</v>
@@ -4328,7 +4328,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.775392702429271</v>
+        <v>1.802980216904771</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.801480475001842</v>
@@ -4417,7 +4417,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.767455974656629</v>
+        <v>1.791389064563554</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.841511962710686</v>
@@ -4506,7 +4506,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.774004097009857</v>
+        <v>1.800327218557503</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.766437914077746</v>
@@ -4595,7 +4595,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.782808095085353</v>
+        <v>1.812255445642287</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.875738305409566</v>
@@ -4684,7 +4684,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.791799943643303</v>
+        <v>1.827051034570767</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.876246919387718</v>
@@ -4773,7 +4773,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.800686837197502</v>
+        <v>1.825054822229919</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.833513748875936</v>
@@ -4862,7 +4862,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.813414109274652</v>
+        <v>1.838693549959957</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.887962640880622</v>
@@ -4951,7 +4951,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.816696673481415</v>
+        <v>1.839887087961556</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.895836285417376</v>
@@ -5040,7 +5040,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.823873732346501</v>
+        <v>1.849640132259647</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.431848306024307</v>
@@ -5129,7 +5129,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.845849827186629</v>
+        <v>1.867711835595921</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.407497937423646</v>
@@ -5218,7 +5218,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.817519634525415</v>
+        <v>1.842942167278783</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.264069686520461</v>
@@ -5307,7 +5307,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.796931968872956</v>
+        <v>1.818516345982661</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.587452494832369</v>
@@ -5396,7 +5396,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.791337240531793</v>
+        <v>1.818117161184807</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.404691031345962</v>
@@ -5485,7 +5485,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.80216962187391</v>
+        <v>1.829442961926413</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.135213915408029</v>
@@ -5574,7 +5574,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.828296977305917</v>
+        <v>1.850917090571142</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.047307448587521</v>
@@ -5663,7 +5663,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.80021093826553</v>
+        <v>1.835287459750707</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.079255901429815</v>
@@ -5752,7 +5752,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.823398587014224</v>
+        <v>1.858119652986943</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.456162740327899</v>
@@ -5841,7 +5841,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.794997014304474</v>
+        <v>1.838644673663026</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.133307744695527</v>
@@ -5930,7 +5930,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.758415564339153</v>
+        <v>1.804751944279207</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.055024335017408</v>
@@ -6019,7 +6019,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.753964655311486</v>
+        <v>1.796991103257941</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.01638503038748</v>
@@ -6108,7 +6108,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.746706063328586</v>
+        <v>1.789898645774461</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.038774243151198</v>
@@ -6197,7 +6197,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.741587431989689</v>
+        <v>1.781651019737525</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.09130987886287</v>
@@ -6286,7 +6286,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.735273405914022</v>
+        <v>1.773458652820566</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.041294027539844</v>
@@ -6375,7 +6375,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.723700490684434</v>
+        <v>1.761151593266613</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.828452731133982</v>
@@ -6464,7 +6464,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.722028654142875</v>
+        <v>1.754665265688198</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.646495535361843</v>
@@ -6553,7 +6553,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.717241323361212</v>
+        <v>1.751824686933936</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.974060218592222</v>
@@ -6642,7 +6642,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.748159413488156</v>
+        <v>1.775923747360909</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.658921589714234</v>
@@ -6928,7 +6928,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.800276413481842</v>
+        <v>1.802213230994417</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.53674700872365</v>
@@ -7017,7 +7017,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.786524971861346</v>
+        <v>1.772407164682021</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.740660596279799</v>
@@ -7106,7 +7106,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.751461818243053</v>
+        <v>1.716397044153564</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.505230021310686</v>
@@ -7195,7 +7195,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.662764948058152</v>
+        <v>1.599324197956296</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.518213983728331</v>
@@ -7284,7 +7284,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.655817804680155</v>
+        <v>1.581826324524866</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.397265585498435</v>
@@ -7373,7 +7373,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.659241563212257</v>
+        <v>1.585073422670226</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.402239860212088</v>
@@ -7462,7 +7462,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.690979536706817</v>
+        <v>1.620664221022084</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.191078554663835</v>
@@ -7551,7 +7551,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.699406283350313</v>
+        <v>1.627506003687892</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.175603871430691</v>
@@ -7640,7 +7640,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.717289299438908</v>
+        <v>1.649329126661363</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.297630233402931</v>
@@ -7729,7 +7729,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.726028312661788</v>
+        <v>1.669351493614922</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.319534617867188</v>
@@ -7818,7 +7818,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.725344113452412</v>
+        <v>1.674611736904765</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.236018250895526</v>
@@ -7907,7 +7907,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.735156246005043</v>
+        <v>1.691313538776471</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.489074869775036</v>
@@ -7996,7 +7996,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.737466624828283</v>
+        <v>1.695973550658008</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.505944239405616</v>
@@ -8085,7 +8085,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.738937876773484</v>
+        <v>1.692202760673269</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.68944779209767</v>
@@ -8174,7 +8174,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.719427620914797</v>
+        <v>1.677611751613048</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.689521542813536</v>
@@ -8263,7 +8263,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.725916417570424</v>
+        <v>1.692973050152324</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.771961689261591</v>
@@ -8352,7 +8352,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.722024920186098</v>
+        <v>1.704345734620206</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.77866017816245</v>
@@ -8441,7 +8441,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.732299209848363</v>
+        <v>1.722922504412307</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.865095368542112</v>
@@ -8530,7 +8530,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.744753870537816</v>
+        <v>1.736968953326713</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.669348036322391</v>
@@ -8619,7 +8619,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.756605513096125</v>
+        <v>1.753945728248807</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.769307424637895</v>
@@ -8708,7 +8708,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.767439448318485</v>
+        <v>1.763342195750503</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.859783300084019</v>
@@ -8797,7 +8797,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.780457267519654</v>
+        <v>1.7771711282325</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.748073271225348</v>
@@ -8886,7 +8886,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.784635986760929</v>
+        <v>1.781942599019241</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.799303653732129</v>
@@ -8975,7 +8975,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.785599801640785</v>
+        <v>1.782375600340483</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.972258742281223</v>
@@ -9064,7 +9064,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.784955385172585</v>
+        <v>1.773116768533805</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.917978468416901</v>
@@ -9153,7 +9153,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.789022723850571</v>
+        <v>1.77017001994628</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.744140600026078</v>
@@ -9242,7 +9242,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.77419543331358</v>
+        <v>1.75237974299695</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.710599827143496</v>
@@ -9331,7 +9331,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.77917399265219</v>
+        <v>1.764190886321419</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.853872480485391</v>
@@ -9420,7 +9420,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.796237243480121</v>
+        <v>1.787002533540635</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.680027362160315</v>
@@ -9509,7 +9509,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.80875394489022</v>
+        <v>1.805386330967131</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.491114080478984</v>
@@ -9598,7 +9598,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.810194021418945</v>
+        <v>1.806948467531202</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.02090624772165</v>
@@ -9687,7 +9687,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.82161229843385</v>
+        <v>1.816392907759187</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.928800162051098</v>
@@ -9776,7 +9776,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.814613251768618</v>
+        <v>1.815301973743796</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.969291048175848</v>
@@ -9865,7 +9865,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.824057290068023</v>
+        <v>1.822958399558324</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.794692179098644</v>
@@ -9954,7 +9954,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.821727328691449</v>
+        <v>1.820317301238723</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.106474105587861</v>
@@ -10043,7 +10043,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.826475454656562</v>
+        <v>1.827535048241162</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.249765370405428</v>
@@ -10132,7 +10132,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.801936355655259</v>
+        <v>1.798877117849452</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.089922706744732</v>
@@ -10221,7 +10221,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.788185308927766</v>
+        <v>1.779016740636049</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.648642041513443</v>
@@ -10310,7 +10310,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.781834634586184</v>
+        <v>1.775076708018355</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.153188732361693</v>
@@ -10399,7 +10399,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.789957405366347</v>
+        <v>1.784357661427033</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.325711525664267</v>
@@ -10488,7 +10488,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.783568706167469</v>
+        <v>1.780104564078794</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.631072212230419</v>
@@ -10577,7 +10577,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.800935378927181</v>
+        <v>1.789786384016637</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.50158719453484</v>
@@ -10863,7 +10863,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.81186182726475</v>
+        <v>1.79867057089744</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.299082285499621</v>
@@ -10952,7 +10952,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.804113123173868</v>
+        <v>1.787064026003625</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.533536272788141</v>
@@ -11041,7 +11041,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.783118869470037</v>
+        <v>1.766956164824179</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.291908181476537</v>
@@ -11130,7 +11130,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.755736757204612</v>
+        <v>1.719502249595655</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.747903693131336</v>
@@ -11219,7 +11219,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.752522946127138</v>
+        <v>1.71570188346945</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.389899938084914</v>
@@ -11308,7 +11308,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.776065658825871</v>
+        <v>1.742538371130889</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.246324241393161</v>
@@ -11397,7 +11397,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.787909891352418</v>
+        <v>1.755901991622488</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.064976641066148</v>
@@ -11486,7 +11486,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.801643488708425</v>
+        <v>1.77072356524057</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.605947071783696</v>
@@ -11575,7 +11575,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.808261890917408</v>
+        <v>1.776625175525191</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.657009827557439</v>
@@ -11664,7 +11664,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.811969847134077</v>
+        <v>1.781262364418023</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.574516100128588</v>
@@ -11753,7 +11753,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.825150495961816</v>
+        <v>1.79632571680015</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.400716557518316</v>
@@ -11842,7 +11842,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.827878431313194</v>
+        <v>1.797462122379964</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.615645511008847</v>
@@ -11931,7 +11931,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.826863056962953</v>
+        <v>1.803092051220489</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.682200533364779</v>
@@ -12020,7 +12020,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.829031740455134</v>
+        <v>1.804920996178745</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.608650310753335</v>
@@ -12109,7 +12109,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.817145631153211</v>
+        <v>1.796655785172642</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.695373321934741</v>
@@ -12198,7 +12198,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.826495848964006</v>
+        <v>1.805416589725392</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.757738844520489</v>
@@ -12287,7 +12287,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.825875058118829</v>
+        <v>1.810815090664889</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.541274615371696</v>
@@ -12376,7 +12376,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.828695467944105</v>
+        <v>1.811277932751956</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.809047202737492</v>
@@ -12465,7 +12465,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.836424012305512</v>
+        <v>1.825203239697654</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.702327545293119</v>
@@ -12554,7 +12554,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.840100850614211</v>
+        <v>1.834789788268962</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.617454254852664</v>
@@ -12643,7 +12643,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.8307310896791</v>
+        <v>1.832286972664624</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.854906563579501</v>
@@ -12732,7 +12732,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.834906506906446</v>
+        <v>1.840179209820692</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.811487122375925</v>
@@ -12821,7 +12821,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.830620227034816</v>
+        <v>1.840949207933424</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.369386520401788</v>
@@ -12910,7 +12910,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.828633435713449</v>
+        <v>1.836979857317258</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.573999875992926</v>
@@ -12999,7 +12999,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.841238299803621</v>
+        <v>1.850042067962184</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.128480041010467</v>
@@ -13088,7 +13088,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.813644855278203</v>
+        <v>1.820017794234102</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.349851229809469</v>
@@ -13177,7 +13177,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.807138453100808</v>
+        <v>1.813044803032017</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.455837358095454</v>
@@ -13266,7 +13266,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.808118770288502</v>
+        <v>1.811869434098477</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.691791725187149</v>
@@ -13355,7 +13355,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.814534682388985</v>
+        <v>1.816584710456717</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.500714823353772</v>
@@ -13444,7 +13444,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.816451498268475</v>
+        <v>1.814888540328597</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.448345258059948</v>
@@ -13533,7 +13533,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.804837667142098</v>
+        <v>1.805961647381132</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.8953350777933</v>
@@ -13622,7 +13622,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.82099452223549</v>
+        <v>1.810427988440987</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.84571181504265</v>
@@ -13711,7 +13711,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.82275993807374</v>
+        <v>1.811308994463744</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.879704458161413</v>
@@ -13800,7 +13800,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.815474108196719</v>
+        <v>1.807458910740011</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.65556458547868</v>
@@ -13889,7 +13889,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.809018804246504</v>
+        <v>1.797271699926389</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.480292794913611</v>
@@ -13978,7 +13978,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.811552262618414</v>
+        <v>1.801283708320505</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.701047398340546</v>
@@ -14067,7 +14067,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.806114648571542</v>
+        <v>1.794654769281151</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.826990753512692</v>
@@ -14156,7 +14156,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.793544882155104</v>
+        <v>1.776547972990362</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.892344445848712</v>
@@ -14245,7 +14245,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.793475284305827</v>
+        <v>1.780965408587619</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.596687730220924</v>
@@ -14334,7 +14334,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.795610033318817</v>
+        <v>1.77835314444537</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.134158130146006</v>
@@ -14423,7 +14423,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.803115619921671</v>
+        <v>1.787620597509405</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.040073187272193</v>
@@ -14512,7 +14512,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.812214416770494</v>
+        <v>1.788671668787094</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.385418255453837</v>
@@ -14798,7 +14798,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.757922371868312</v>
+        <v>1.695532477307743</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.169351655085063</v>
@@ -14887,7 +14887,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.776591000092327</v>
+        <v>1.707308161361362</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.269389189456958</v>
@@ -14976,7 +14976,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.773502920042368</v>
+        <v>1.706156346408929</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.379820490167174</v>
@@ -15065,7 +15065,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.771581415825194</v>
+        <v>1.699343198816419</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.351713455867656</v>
@@ -15154,7 +15154,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.770678844784892</v>
+        <v>1.697706988504477</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.595303676900578</v>
@@ -15243,7 +15243,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.79279440885118</v>
+        <v>1.728666285655883</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.253173585343831</v>
@@ -15332,7 +15332,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.811731130113066</v>
+        <v>1.749058373952334</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.418280675315372</v>
@@ -15421,7 +15421,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.822998103478576</v>
+        <v>1.77264326529265</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.653283477597061</v>
@@ -15510,7 +15510,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.82194672296374</v>
+        <v>1.770272602134036</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.396746905476991</v>
@@ -15599,7 +15599,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.821225048927183</v>
+        <v>1.769042302551953</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.724883109309332</v>
@@ -15688,7 +15688,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.824263754474757</v>
+        <v>1.767655098213911</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.239542953757083</v>
@@ -15777,7 +15777,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.829594495357975</v>
+        <v>1.766315806117904</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.5290451709748</v>
@@ -15866,7 +15866,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.835156832631321</v>
+        <v>1.768530403072821</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.635370927813403</v>
@@ -15955,7 +15955,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.837091756887483</v>
+        <v>1.766685398954954</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.667333219767716</v>
@@ -16044,7 +16044,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.827478733067272</v>
+        <v>1.756801533013542</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.756304547075065</v>
@@ -16133,7 +16133,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.833261774387175</v>
+        <v>1.765779500978164</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.677595213523722</v>
@@ -16222,7 +16222,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.831461752402636</v>
+        <v>1.76698071360357</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.321657130004296</v>
@@ -16311,7 +16311,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.832558459141091</v>
+        <v>1.767088367364297</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.780598848249281</v>
@@ -16400,7 +16400,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.838966866485812</v>
+        <v>1.780895599408545</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.70014230071393</v>
@@ -16489,7 +16489,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.843040174450137</v>
+        <v>1.78217669101706</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.661529735433633</v>
@@ -16578,7 +16578,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.833367472028976</v>
+        <v>1.773428309085935</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.158331062920508</v>
@@ -16667,7 +16667,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.830236851739356</v>
+        <v>1.771925917880273</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.865162517806012</v>
@@ -16756,7 +16756,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.826966798259355</v>
+        <v>1.758050775607155</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.815972253511051</v>
@@ -16845,7 +16845,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.827587457825126</v>
+        <v>1.761868596261503</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.525790934369786</v>
@@ -16934,7 +16934,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.837857545380524</v>
+        <v>1.770298349362644</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.063509752927969</v>
@@ -17023,7 +17023,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.832103491258667</v>
+        <v>1.764345928203469</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.979397115399473</v>
@@ -17112,7 +17112,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.815570601222603</v>
+        <v>1.750657156176408</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.027625284099042</v>
@@ -17201,7 +17201,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.812077211417438</v>
+        <v>1.746363861280433</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.91365467148251</v>
@@ -17290,7 +17290,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.816002450092586</v>
+        <v>1.753567805238351</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.660606265402952</v>
@@ -17379,7 +17379,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.814898384421464</v>
+        <v>1.751984349885791</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.955028098214362</v>
@@ -17468,7 +17468,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.810997151421253</v>
+        <v>1.744772998273145</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.82778452905815</v>
@@ -17557,7 +17557,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.815226583282609</v>
+        <v>1.742192196749017</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.827610812288086</v>
@@ -17646,7 +17646,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.815571884899947</v>
+        <v>1.743034404178289</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.63717759924914</v>
@@ -17735,7 +17735,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.811926804399245</v>
+        <v>1.736857479020786</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.174678088890379</v>
@@ -17824,7 +17824,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.811362494901147</v>
+        <v>1.741623807170756</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.094276974492465</v>
@@ -17913,7 +17913,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.812413241329688</v>
+        <v>1.74186555030838</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.827007578516835</v>
@@ -18002,7 +18002,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.807477028049787</v>
+        <v>1.734300605532489</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.9304010221232</v>
@@ -18091,7 +18091,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.80240954556886</v>
+        <v>1.734898345071804</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.034451877005134</v>
@@ -18180,7 +18180,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.795460658705375</v>
+        <v>1.729934667763424</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.162779247711146</v>
@@ -18269,7 +18269,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.797060523777675</v>
+        <v>1.734649070269843</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.843790705357289</v>
@@ -18358,7 +18358,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.79330499190487</v>
+        <v>1.73354905666202</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.943215527611526</v>
@@ -18447,7 +18447,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.804547123392125</v>
+        <v>1.740375654137553</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.66067955623309</v>
@@ -18733,7 +18733,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.571242592505827</v>
+        <v>1.539209432534975</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.129989577305383</v>
@@ -18822,7 +18822,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.565222531009085</v>
+        <v>1.526847487363493</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.673826023629822</v>
@@ -18911,7 +18911,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.582929059402982</v>
+        <v>1.539133282824027</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.431930994674917</v>
@@ -19000,7 +19000,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.596107564218273</v>
+        <v>1.539167041564176</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.547016194994441</v>
@@ -19089,7 +19089,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.614586059091211</v>
+        <v>1.557299116095684</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.258729198010478</v>
@@ -19178,7 +19178,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.628805700985097</v>
+        <v>1.569627063492681</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.662136248101633</v>
@@ -19267,7 +19267,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.656878702114128</v>
+        <v>1.590603050957505</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.959441429318897</v>
@@ -19356,7 +19356,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.668020044073461</v>
+        <v>1.599578892463392</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.512645576209675</v>
@@ -19445,7 +19445,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.670655287929023</v>
+        <v>1.603596870446345</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.203703180597013</v>
@@ -19534,7 +19534,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.666606500071762</v>
+        <v>1.602491567387813</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.606610143671181</v>
@@ -19623,7 +19623,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.664171448684424</v>
+        <v>1.60072365027398</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.286938871670263</v>
@@ -19712,7 +19712,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.663744401445064</v>
+        <v>1.599455623153058</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.522094059456885</v>
@@ -19801,7 +19801,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.65677958731881</v>
+        <v>1.595324663464609</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.342353550498693</v>
@@ -19890,7 +19890,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.633976474860804</v>
+        <v>1.570851416353252</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.978405628937469</v>
@@ -19979,7 +19979,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.600200453316067</v>
+        <v>1.548509018947179</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.626528899078238</v>
@@ -20068,7 +20068,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.602988043097359</v>
+        <v>1.557642408853614</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.719715456193211</v>
@@ -20157,7 +20157,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.595959642809594</v>
+        <v>1.557913533646453</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.766583694212464</v>
@@ -20246,7 +20246,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.592691791582206</v>
+        <v>1.553260403114749</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.647806520725992</v>
@@ -20335,7 +20335,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.594245267454673</v>
+        <v>1.564650921826854</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.768761050635986</v>
@@ -20424,7 +20424,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.605233956155561</v>
+        <v>1.569846232069915</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.689908332052585</v>
@@ -20513,7 +20513,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.60289277895435</v>
+        <v>1.566324599030464</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.66298215531598</v>
@@ -20602,7 +20602,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.61097391003133</v>
+        <v>1.576652210421462</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.697281335399208</v>
@@ -20691,7 +20691,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.606571729734672</v>
+        <v>1.578163322880717</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.660927897698908</v>
@@ -20780,7 +20780,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.614455202159317</v>
+        <v>1.578947768387573</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.802982790680758</v>
@@ -20869,7 +20869,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.619166728183263</v>
+        <v>1.58084193946001</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.529668638227871</v>
@@ -20958,7 +20958,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.612481548843229</v>
+        <v>1.568894604659116</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.643472172512541</v>
@@ -21047,7 +21047,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.619949997865759</v>
+        <v>1.572194030819206</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.63931331200473</v>
@@ -21136,7 +21136,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.626573519318294</v>
+        <v>1.577989462669532</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.658023643713518</v>
@@ -21225,7 +21225,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.661196385101689</v>
+        <v>1.604561678514521</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.485115720400555</v>
@@ -21314,7 +21314,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.682627106397865</v>
+        <v>1.623828358894739</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.203367344691888</v>
@@ -21403,7 +21403,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.686690756716813</v>
+        <v>1.622490078688005</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.647393766816142</v>
@@ -21492,7 +21492,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.69140991943198</v>
+        <v>1.626673315594417</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.799092838114912</v>
@@ -21581,7 +21581,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.686843821044458</v>
+        <v>1.627088612099193</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.505013156997823</v>
@@ -21670,7 +21670,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.686425167440007</v>
+        <v>1.622031437504341</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.478431610474209</v>
@@ -21759,7 +21759,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.678209893254427</v>
+        <v>1.618539882315732</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.577826487546964</v>
@@ -21848,7 +21848,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.676186414551526</v>
+        <v>1.616248751162606</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.54208411317057</v>
@@ -21937,7 +21937,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.654028836596367</v>
+        <v>1.59570007482369</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.994708553511721</v>
@@ -22026,7 +22026,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.639663419712621</v>
+        <v>1.579316317872263</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.170090381092671</v>
@@ -22115,7 +22115,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.636142807583199</v>
+        <v>1.58081595504267</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.112831381333033</v>
@@ -22204,7 +22204,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.650470571494447</v>
+        <v>1.592426140265207</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.918906818208147</v>
@@ -22293,7 +22293,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.645379049563559</v>
+        <v>1.598121316582803</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.900618680231763</v>
@@ -22382,7 +22382,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.646317074867084</v>
+        <v>1.599010250773133</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.932808011894837</v>
@@ -22668,7 +22668,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.613085330893734</v>
+        <v>1.591893917575492</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.302818439150993</v>
@@ -22757,7 +22757,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.64091418673753</v>
+        <v>1.617902988434646</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.707791498187402</v>
@@ -22846,7 +22846,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.624932721288235</v>
+        <v>1.610736068077481</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.597995636999617</v>
@@ -22935,7 +22935,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.6676112247667</v>
+        <v>1.649432035548972</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.49957796190612</v>
@@ -23024,7 +23024,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.691072695347729</v>
+        <v>1.668927301873841</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.830652152637372</v>
@@ -23113,7 +23113,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.719276351635019</v>
+        <v>1.701341314884288</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.934506633223797</v>
@@ -23202,7 +23202,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.732820651570177</v>
+        <v>1.711960298183586</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.751224692685437</v>
@@ -23291,7 +23291,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.763862884495233</v>
+        <v>1.740580212392931</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.030380159913689</v>
@@ -23380,7 +23380,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.777817945578973</v>
+        <v>1.756494744397122</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.794851262250465</v>
@@ -23469,7 +23469,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.782576543290084</v>
+        <v>1.763141199814275</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.092833822816814</v>
@@ -23558,7 +23558,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.783288721896936</v>
+        <v>1.764484216731832</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.103018412590595</v>
@@ -23647,7 +23647,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.784162447704789</v>
+        <v>1.761365217441091</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.110834899898222</v>
@@ -23736,7 +23736,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.768719057667941</v>
+        <v>1.755396456765477</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.058390721007824</v>
@@ -23825,7 +23825,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.772929470266328</v>
+        <v>1.755877443139119</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.012736035484329</v>
@@ -23914,7 +23914,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.752219954483512</v>
+        <v>1.738142670147141</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.208061699699484</v>
@@ -24003,7 +24003,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.780466557345457</v>
+        <v>1.763828209026731</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.081733022524833</v>
@@ -24092,7 +24092,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.777162681780583</v>
+        <v>1.76052380268005</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.056879384554963</v>
@@ -24181,7 +24181,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.787417981215599</v>
+        <v>1.773281734712486</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.157876911648577</v>
@@ -24270,7 +24270,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.793823826038993</v>
+        <v>1.784967184000845</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.915463772311647</v>
@@ -24359,7 +24359,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.796332033655022</v>
+        <v>1.791925517447</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.20615739053231</v>
@@ -24448,7 +24448,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.788498534551697</v>
+        <v>1.785943005021442</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.192178641632625</v>
@@ -24537,7 +24537,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.804187997499786</v>
+        <v>1.799708277070074</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.834264771308417</v>
@@ -24626,7 +24626,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.804616723522944</v>
+        <v>1.803674254999494</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.932857431284376</v>
@@ -24715,7 +24715,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.803055364358114</v>
+        <v>1.79627295285462</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.09119895991023</v>
@@ -24804,7 +24804,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.831391155524154</v>
+        <v>1.815750093280873</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.31977889535983</v>
@@ -24893,7 +24893,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.809257652985186</v>
+        <v>1.80125468162933</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.189919959895303</v>
@@ -24982,7 +24982,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.785908906652563</v>
+        <v>1.774368693581942</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.348745253407272</v>
@@ -25071,7 +25071,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.776740369638611</v>
+        <v>1.772346956744652</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.860861219594657</v>
@@ -25160,7 +25160,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.776127876601196</v>
+        <v>1.774018132257532</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.287093895224802</v>
@@ -25249,7 +25249,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.796464434994613</v>
+        <v>1.785878576998208</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.977594265155446</v>
@@ -25338,7 +25338,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.767633680908132</v>
+        <v>1.771173370058918</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.934369543069296</v>
@@ -25427,7 +25427,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.791542759104089</v>
+        <v>1.787782679985119</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.171941651667542</v>
@@ -25516,7 +25516,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.760283133382688</v>
+        <v>1.761259390715569</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.127352561912478</v>
@@ -25605,7 +25605,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.731285495554273</v>
+        <v>1.736861480484904</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.074537088084005</v>
@@ -25694,7 +25694,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.730092154732772</v>
+        <v>1.731645788706278</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.862735021647449</v>
@@ -25783,7 +25783,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.723482214074278</v>
+        <v>1.725550488545112</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.828649523178278</v>
@@ -25872,7 +25872,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.721637468485364</v>
+        <v>1.722596748963671</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.795161683697132</v>
@@ -25961,7 +25961,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.709052531205427</v>
+        <v>1.709723540549876</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.955334010460354</v>
@@ -26050,7 +26050,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.70160922155605</v>
+        <v>1.705606130663255</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.954325118271509</v>
@@ -26139,7 +26139,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.703203872175711</v>
+        <v>1.709305358119378</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.517249752540095</v>
@@ -26228,7 +26228,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.688687727308938</v>
+        <v>1.695854473616611</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.674624012766033</v>
@@ -26317,7 +26317,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.722581631105318</v>
+        <v>1.723243105888265</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.549060621544237</v>
